--- a/data/output/FV2404_FV2310/INVOIC/31002.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31002.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5326" uniqueCount="449">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5347" uniqueCount="449">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichtenanfang</t>
@@ -1535,6 +1535,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U239" totalsRowShown="0">
+  <autoFilter ref="A1:U239"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1824,7 +1854,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U239"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13122,5 +13155,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/INVOIC/31002.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31002.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6448" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6098" uniqueCount="669">
   <si>
     <t>#</t>
   </si>
@@ -5034,48 +5034,46 @@
       <c r="V51" s="9"/>
     </row>
     <row r="52" spans="1:22">
-      <c r="A52" s="5" t="s">
+      <c r="A52" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5" t="s">
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K52" s="5"/>
-      <c r="L52" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M52" s="5" t="s">
+      <c r="K52" s="2"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="N52" s="5" t="s">
+      <c r="N52" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O52" s="5" t="s">
+      <c r="O52" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5" t="s">
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V52" s="5"/>
+      <c r="V52" s="2"/>
     </row>
     <row r="53" spans="1:22">
       <c r="A53" s="5" t="s">
@@ -5105,9 +5103,7 @@
         <v>361</v>
       </c>
       <c r="K53" s="5"/>
-      <c r="L53" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L53" s="4"/>
       <c r="M53" s="5" t="s">
         <v>31</v>
       </c>
@@ -5161,9 +5157,7 @@
         <v>361</v>
       </c>
       <c r="K54" s="5"/>
-      <c r="L54" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L54" s="4"/>
       <c r="M54" s="5" t="s">
         <v>31</v>
       </c>
@@ -5190,48 +5184,46 @@
       <c r="V54" s="5"/>
     </row>
     <row r="55" spans="1:22">
-      <c r="A55" s="5" t="s">
+      <c r="A55" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5" t="s">
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K55" s="5"/>
-      <c r="L55" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M55" s="5" t="s">
+      <c r="K55" s="2"/>
+      <c r="L55" s="4"/>
+      <c r="M55" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="N55" s="5" t="s">
+      <c r="N55" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O55" s="5" t="s">
+      <c r="O55" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5" t="s">
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V55" s="5"/>
+      <c r="V55" s="2"/>
     </row>
     <row r="56" spans="1:22">
       <c r="A56" s="5" t="s">
@@ -5261,9 +5253,7 @@
         <v>361</v>
       </c>
       <c r="K56" s="5"/>
-      <c r="L56" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L56" s="4"/>
       <c r="M56" s="5" t="s">
         <v>32</v>
       </c>
@@ -5315,9 +5305,7 @@
         <v>361</v>
       </c>
       <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L57" s="4"/>
       <c r="M57" s="5" t="s">
         <v>32</v>
       </c>
@@ -5342,48 +5330,46 @@
       <c r="V57" s="5"/>
     </row>
     <row r="58" spans="1:22">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
-      <c r="H58" s="5"/>
-      <c r="I58" s="5"/>
-      <c r="J58" s="5" t="s">
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M58" s="5" t="s">
+      <c r="K58" s="2"/>
+      <c r="L58" s="4"/>
+      <c r="M58" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="N58" s="5" t="s">
+      <c r="N58" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O58" s="5" t="s">
+      <c r="O58" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P58" s="5"/>
-      <c r="Q58" s="5"/>
-      <c r="R58" s="5"/>
-      <c r="S58" s="5"/>
-      <c r="T58" s="5"/>
-      <c r="U58" s="5" t="s">
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V58" s="5"/>
+      <c r="V58" s="2"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="5" t="s">
@@ -5413,9 +5399,7 @@
         <v>361</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>33</v>
       </c>
@@ -5467,9 +5451,7 @@
         <v>361</v>
       </c>
       <c r="K60" s="5"/>
-      <c r="L60" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>33</v>
       </c>
@@ -5521,9 +5503,7 @@
         <v>361</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>33</v>
       </c>
@@ -5550,48 +5530,46 @@
       <c r="V61" s="5"/>
     </row>
     <row r="62" spans="1:22">
-      <c r="A62" s="5" t="s">
+      <c r="A62" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5" t="s">
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M62" s="5" t="s">
+      <c r="K62" s="2"/>
+      <c r="L62" s="4"/>
+      <c r="M62" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N62" s="5" t="s">
+      <c r="N62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O62" s="5" t="s">
+      <c r="O62" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5" t="s">
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+      <c r="R62" s="2"/>
+      <c r="S62" s="2"/>
+      <c r="T62" s="2"/>
+      <c r="U62" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V62" s="5"/>
+      <c r="V62" s="2"/>
     </row>
     <row r="63" spans="1:22">
       <c r="A63" s="5" t="s">
@@ -5621,9 +5599,7 @@
         <v>361</v>
       </c>
       <c r="K63" s="5"/>
-      <c r="L63" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L63" s="4"/>
       <c r="M63" s="5" t="s">
         <v>34</v>
       </c>
@@ -5677,9 +5653,7 @@
       <c r="K64" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="L64" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L64" s="4"/>
       <c r="M64" s="5" t="s">
         <v>34</v>
       </c>
@@ -5706,48 +5680,46 @@
       </c>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E65" s="5"/>
-      <c r="F65" s="5"/>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K65" s="5"/>
-      <c r="L65" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M65" s="5" t="s">
+      <c r="K65" s="2"/>
+      <c r="L65" s="4"/>
+      <c r="M65" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="N65" s="5" t="s">
+      <c r="N65" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O65" s="5" t="s">
+      <c r="O65" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5" t="s">
+      <c r="P65" s="2"/>
+      <c r="Q65" s="2"/>
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V65" s="5"/>
+      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
@@ -5777,9 +5749,7 @@
         <v>361</v>
       </c>
       <c r="K66" s="5"/>
-      <c r="L66" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="5" t="s">
         <v>35</v>
       </c>
@@ -5833,9 +5803,7 @@
       <c r="K67" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="L67" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L67" s="4"/>
       <c r="M67" s="5" t="s">
         <v>35</v>
       </c>
@@ -5889,9 +5857,7 @@
         <v>361</v>
       </c>
       <c r="K68" s="5"/>
-      <c r="L68" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L68" s="4"/>
       <c r="M68" s="5" t="s">
         <v>35</v>
       </c>
@@ -5945,9 +5911,7 @@
         <v>361</v>
       </c>
       <c r="K69" s="5"/>
-      <c r="L69" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L69" s="4"/>
       <c r="M69" s="5" t="s">
         <v>35</v>
       </c>
@@ -6001,9 +5965,7 @@
         <v>361</v>
       </c>
       <c r="K70" s="5"/>
-      <c r="L70" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L70" s="4"/>
       <c r="M70" s="5" t="s">
         <v>35</v>
       </c>
@@ -6055,9 +6017,7 @@
         <v>361</v>
       </c>
       <c r="K71" s="5"/>
-      <c r="L71" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L71" s="4"/>
       <c r="M71" s="5" t="s">
         <v>35</v>
       </c>
@@ -6109,9 +6069,7 @@
         <v>361</v>
       </c>
       <c r="K72" s="5"/>
-      <c r="L72" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L72" s="4"/>
       <c r="M72" s="5" t="s">
         <v>35</v>
       </c>
@@ -6165,9 +6123,7 @@
         <v>361</v>
       </c>
       <c r="K73" s="5"/>
-      <c r="L73" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L73" s="4"/>
       <c r="M73" s="5" t="s">
         <v>35</v>
       </c>
@@ -6273,9 +6229,7 @@
         <v>371</v>
       </c>
       <c r="K75" s="5"/>
-      <c r="L75" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L75" s="4"/>
       <c r="M75" s="5" t="s">
         <v>35</v>
       </c>
@@ -6325,9 +6279,7 @@
         <v>361</v>
       </c>
       <c r="K76" s="5"/>
-      <c r="L76" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L76" s="4"/>
       <c r="M76" s="5" t="s">
         <v>35</v>
       </c>
@@ -6377,9 +6329,7 @@
         <v>361</v>
       </c>
       <c r="K77" s="5"/>
-      <c r="L77" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="5" t="s">
         <v>35</v>
       </c>
@@ -6404,48 +6354,46 @@
       <c r="V77" s="5"/>
     </row>
     <row r="78" spans="1:22">
-      <c r="A78" s="5" t="s">
+      <c r="A78" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B78" s="5" t="s">
+      <c r="B78" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E78" s="5"/>
-      <c r="F78" s="5"/>
-      <c r="G78" s="5"/>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5" t="s">
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K78" s="5"/>
-      <c r="L78" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M78" s="5" t="s">
+      <c r="K78" s="2"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N78" s="5" t="s">
+      <c r="N78" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O78" s="5" t="s">
+      <c r="O78" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P78" s="5"/>
-      <c r="Q78" s="5"/>
-      <c r="R78" s="5"/>
-      <c r="S78" s="5"/>
-      <c r="T78" s="5"/>
-      <c r="U78" s="5" t="s">
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+      <c r="R78" s="2"/>
+      <c r="S78" s="2"/>
+      <c r="T78" s="2"/>
+      <c r="U78" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V78" s="5"/>
+      <c r="V78" s="2"/>
     </row>
     <row r="79" spans="1:22">
       <c r="A79" s="5" t="s">
@@ -6475,9 +6423,7 @@
         <v>361</v>
       </c>
       <c r="K79" s="5"/>
-      <c r="L79" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L79" s="4"/>
       <c r="M79" s="5" t="s">
         <v>36</v>
       </c>
@@ -6589,9 +6535,7 @@
         <v>361</v>
       </c>
       <c r="K81" s="5"/>
-      <c r="L81" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L81" s="4"/>
       <c r="M81" s="5" t="s">
         <v>36</v>
       </c>
@@ -6616,48 +6560,46 @@
       <c r="V81" s="5"/>
     </row>
     <row r="82" spans="1:22">
-      <c r="A82" s="5" t="s">
+      <c r="A82" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="B82" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
-      <c r="G82" s="5"/>
-      <c r="H82" s="5"/>
-      <c r="I82" s="5"/>
-      <c r="J82" s="5" t="s">
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K82" s="5"/>
-      <c r="L82" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M82" s="5" t="s">
+      <c r="K82" s="2"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="N82" s="5" t="s">
+      <c r="N82" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O82" s="5" t="s">
+      <c r="O82" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P82" s="5"/>
-      <c r="Q82" s="5"/>
-      <c r="R82" s="5"/>
-      <c r="S82" s="5"/>
-      <c r="T82" s="5"/>
-      <c r="U82" s="5" t="s">
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2"/>
+      <c r="R82" s="2"/>
+      <c r="S82" s="2"/>
+      <c r="T82" s="2"/>
+      <c r="U82" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V82" s="5"/>
+      <c r="V82" s="2"/>
     </row>
     <row r="83" spans="1:22">
       <c r="A83" s="5" t="s">
@@ -6687,9 +6629,7 @@
         <v>361</v>
       </c>
       <c r="K83" s="5"/>
-      <c r="L83" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L83" s="4"/>
       <c r="M83" s="5" t="s">
         <v>37</v>
       </c>
@@ -6741,9 +6681,7 @@
         <v>361</v>
       </c>
       <c r="K84" s="5"/>
-      <c r="L84" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L84" s="4"/>
       <c r="M84" s="5" t="s">
         <v>37</v>
       </c>
@@ -6768,48 +6706,46 @@
       <c r="V84" s="5"/>
     </row>
     <row r="85" spans="1:22">
-      <c r="A85" s="5" t="s">
+      <c r="A85" s="2" t="s">
         <v>526</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B85" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C85" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
-      <c r="G85" s="5"/>
-      <c r="H85" s="5"/>
-      <c r="I85" s="5"/>
-      <c r="J85" s="5" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K85" s="5"/>
-      <c r="L85" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M85" s="5" t="s">
+      <c r="K85" s="2"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="N85" s="5" t="s">
+      <c r="N85" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O85" s="5" t="s">
+      <c r="O85" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="P85" s="5"/>
-      <c r="Q85" s="5"/>
-      <c r="R85" s="5"/>
-      <c r="S85" s="5"/>
-      <c r="T85" s="5"/>
-      <c r="U85" s="5" t="s">
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+      <c r="R85" s="2"/>
+      <c r="S85" s="2"/>
+      <c r="T85" s="2"/>
+      <c r="U85" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V85" s="5"/>
+      <c r="V85" s="2"/>
     </row>
     <row r="86" spans="1:22">
       <c r="A86" s="5" t="s">
@@ -6893,9 +6829,7 @@
         <v>373</v>
       </c>
       <c r="K87" s="5"/>
-      <c r="L87" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L87" s="4"/>
       <c r="M87" s="5" t="s">
         <v>38</v>
       </c>
@@ -6949,9 +6883,7 @@
         <v>373</v>
       </c>
       <c r="K88" s="5"/>
-      <c r="L88" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L88" s="4"/>
       <c r="M88" s="5" t="s">
         <v>38</v>
       </c>
@@ -7005,9 +6937,7 @@
         <v>373</v>
       </c>
       <c r="K89" s="5"/>
-      <c r="L89" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L89" s="4"/>
       <c r="M89" s="5" t="s">
         <v>38</v>
       </c>
@@ -7061,9 +6991,7 @@
         <v>373</v>
       </c>
       <c r="K90" s="5"/>
-      <c r="L90" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L90" s="4"/>
       <c r="M90" s="5" t="s">
         <v>38</v>
       </c>
@@ -7117,9 +7045,7 @@
         <v>373</v>
       </c>
       <c r="K91" s="5"/>
-      <c r="L91" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L91" s="4"/>
       <c r="M91" s="5" t="s">
         <v>38</v>
       </c>
@@ -7146,48 +7072,46 @@
       <c r="V91" s="5"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E92" s="5"/>
-      <c r="F92" s="5"/>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="s">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K92" s="5"/>
-      <c r="L92" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M92" s="5" t="s">
+      <c r="K92" s="2"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="N92" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O92" s="5" t="s">
+      <c r="O92" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P92" s="5"/>
-      <c r="Q92" s="5"/>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5" t="s">
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2"/>
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V92" s="5"/>
+      <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -7217,9 +7141,7 @@
         <v>361</v>
       </c>
       <c r="K93" s="5"/>
-      <c r="L93" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L93" s="4"/>
       <c r="M93" s="5" t="s">
         <v>39</v>
       </c>
@@ -7273,9 +7195,7 @@
       <c r="K94" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="L94" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L94" s="4"/>
       <c r="M94" s="5" t="s">
         <v>39</v>
       </c>
@@ -7329,9 +7249,7 @@
         <v>361</v>
       </c>
       <c r="K95" s="5"/>
-      <c r="L95" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L95" s="4"/>
       <c r="M95" s="5" t="s">
         <v>39</v>
       </c>
@@ -7385,9 +7303,7 @@
         <v>361</v>
       </c>
       <c r="K96" s="5"/>
-      <c r="L96" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="5" t="s">
         <v>39</v>
       </c>
@@ -7441,9 +7357,7 @@
         <v>361</v>
       </c>
       <c r="K97" s="5"/>
-      <c r="L97" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L97" s="4"/>
       <c r="M97" s="5" t="s">
         <v>39</v>
       </c>
@@ -7495,9 +7409,7 @@
         <v>361</v>
       </c>
       <c r="K98" s="5"/>
-      <c r="L98" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L98" s="4"/>
       <c r="M98" s="5" t="s">
         <v>39</v>
       </c>
@@ -7549,9 +7461,7 @@
         <v>361</v>
       </c>
       <c r="K99" s="5"/>
-      <c r="L99" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L99" s="4"/>
       <c r="M99" s="5" t="s">
         <v>39</v>
       </c>
@@ -7605,9 +7515,7 @@
         <v>361</v>
       </c>
       <c r="K100" s="5"/>
-      <c r="L100" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L100" s="4"/>
       <c r="M100" s="5" t="s">
         <v>39</v>
       </c>
@@ -7713,9 +7621,7 @@
         <v>371</v>
       </c>
       <c r="K102" s="5"/>
-      <c r="L102" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L102" s="4"/>
       <c r="M102" s="5" t="s">
         <v>39</v>
       </c>
@@ -7765,9 +7671,7 @@
         <v>361</v>
       </c>
       <c r="K103" s="5"/>
-      <c r="L103" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L103" s="4"/>
       <c r="M103" s="5" t="s">
         <v>39</v>
       </c>
@@ -7817,9 +7721,7 @@
         <v>361</v>
       </c>
       <c r="K104" s="5"/>
-      <c r="L104" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L104" s="4"/>
       <c r="M104" s="5" t="s">
         <v>39</v>
       </c>
@@ -7844,48 +7746,46 @@
       <c r="V104" s="5"/>
     </row>
     <row r="105" spans="1:22">
-      <c r="A105" s="5" t="s">
+      <c r="A105" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D105" s="5" t="s">
+      <c r="D105" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E105" s="5"/>
-      <c r="F105" s="5"/>
-      <c r="G105" s="5"/>
-      <c r="H105" s="5"/>
-      <c r="I105" s="5"/>
-      <c r="J105" s="5" t="s">
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K105" s="5"/>
-      <c r="L105" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M105" s="5" t="s">
+      <c r="K105" s="2"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N105" s="5" t="s">
+      <c r="N105" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O105" s="5" t="s">
+      <c r="O105" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P105" s="5"/>
-      <c r="Q105" s="5"/>
-      <c r="R105" s="5"/>
-      <c r="S105" s="5"/>
-      <c r="T105" s="5"/>
-      <c r="U105" s="5" t="s">
+      <c r="P105" s="2"/>
+      <c r="Q105" s="2"/>
+      <c r="R105" s="2"/>
+      <c r="S105" s="2"/>
+      <c r="T105" s="2"/>
+      <c r="U105" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V105" s="5"/>
+      <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:22">
       <c r="A106" s="5" t="s">
@@ -7915,9 +7815,7 @@
         <v>361</v>
       </c>
       <c r="K106" s="5"/>
-      <c r="L106" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="5" t="s">
         <v>36</v>
       </c>
@@ -8029,9 +7927,7 @@
         <v>361</v>
       </c>
       <c r="K108" s="5"/>
-      <c r="L108" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L108" s="4"/>
       <c r="M108" s="5" t="s">
         <v>36</v>
       </c>
@@ -8056,48 +7952,46 @@
       <c r="V108" s="5"/>
     </row>
     <row r="109" spans="1:22">
-      <c r="A109" s="5" t="s">
+      <c r="A109" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="B109" s="5" t="s">
+      <c r="B109" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C109" s="5" t="s">
+      <c r="C109" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D109" s="5" t="s">
+      <c r="D109" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E109" s="5"/>
-      <c r="F109" s="5"/>
-      <c r="G109" s="5"/>
-      <c r="H109" s="5"/>
-      <c r="I109" s="5"/>
-      <c r="J109" s="5" t="s">
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K109" s="5"/>
-      <c r="L109" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M109" s="5" t="s">
+      <c r="K109" s="2"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N109" s="5" t="s">
+      <c r="N109" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O109" s="5" t="s">
+      <c r="O109" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="P109" s="5"/>
-      <c r="Q109" s="5"/>
-      <c r="R109" s="5"/>
-      <c r="S109" s="5"/>
-      <c r="T109" s="5"/>
-      <c r="U109" s="5" t="s">
+      <c r="P109" s="2"/>
+      <c r="Q109" s="2"/>
+      <c r="R109" s="2"/>
+      <c r="S109" s="2"/>
+      <c r="T109" s="2"/>
+      <c r="U109" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V109" s="5"/>
+      <c r="V109" s="2"/>
     </row>
     <row r="110" spans="1:22">
       <c r="A110" s="5" t="s">
@@ -8127,9 +8021,7 @@
         <v>361</v>
       </c>
       <c r="K110" s="5"/>
-      <c r="L110" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L110" s="4"/>
       <c r="M110" s="5" t="s">
         <v>40</v>
       </c>
@@ -8181,9 +8073,7 @@
         <v>374</v>
       </c>
       <c r="K111" s="5"/>
-      <c r="L111" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L111" s="4"/>
       <c r="M111" s="5" t="s">
         <v>40</v>
       </c>
@@ -8289,9 +8179,7 @@
         <v>371</v>
       </c>
       <c r="K113" s="5"/>
-      <c r="L113" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="5" t="s">
         <v>40</v>
       </c>
@@ -8341,9 +8229,7 @@
         <v>361</v>
       </c>
       <c r="K114" s="5"/>
-      <c r="L114" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L114" s="4"/>
       <c r="M114" s="5" t="s">
         <v>40</v>
       </c>
@@ -8393,9 +8279,7 @@
         <v>361</v>
       </c>
       <c r="K115" s="5"/>
-      <c r="L115" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L115" s="4"/>
       <c r="M115" s="5" t="s">
         <v>40</v>
       </c>
@@ -8420,48 +8304,46 @@
       <c r="V115" s="5"/>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E116" s="5"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5" t="s">
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K116" s="5"/>
-      <c r="L116" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M116" s="5" t="s">
+      <c r="K116" s="2"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="N116" s="5" t="s">
+      <c r="N116" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="O116" s="5" t="s">
+      <c r="O116" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P116" s="5"/>
-      <c r="Q116" s="5"/>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5" t="s">
+      <c r="P116" s="2"/>
+      <c r="Q116" s="2"/>
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V116" s="5"/>
+      <c r="V116" s="2"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -8491,9 +8373,7 @@
         <v>361</v>
       </c>
       <c r="K117" s="5"/>
-      <c r="L117" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L117" s="4"/>
       <c r="M117" s="5" t="s">
         <v>41</v>
       </c>
@@ -8576,48 +8456,46 @@
       </c>
     </row>
     <row r="119" spans="1:22">
-      <c r="A119" s="5" t="s">
+      <c r="A119" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="B119" s="5" t="s">
+      <c r="B119" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D119" s="5" t="s">
+      <c r="D119" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E119" s="5"/>
-      <c r="F119" s="5"/>
-      <c r="G119" s="5"/>
-      <c r="H119" s="5"/>
-      <c r="I119" s="5"/>
-      <c r="J119" s="5" t="s">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K119" s="5"/>
-      <c r="L119" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M119" s="5" t="s">
+      <c r="K119" s="2"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="N119" s="5" t="s">
+      <c r="N119" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="O119" s="5" t="s">
+      <c r="O119" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P119" s="5"/>
-      <c r="Q119" s="5"/>
-      <c r="R119" s="5"/>
-      <c r="S119" s="5"/>
-      <c r="T119" s="5"/>
-      <c r="U119" s="5" t="s">
+      <c r="P119" s="2"/>
+      <c r="Q119" s="2"/>
+      <c r="R119" s="2"/>
+      <c r="S119" s="2"/>
+      <c r="T119" s="2"/>
+      <c r="U119" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V119" s="5"/>
+      <c r="V119" s="2"/>
     </row>
     <row r="120" spans="1:22">
       <c r="A120" s="5" t="s">
@@ -8647,9 +8525,7 @@
         <v>361</v>
       </c>
       <c r="K120" s="5"/>
-      <c r="L120" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="5" t="s">
         <v>42</v>
       </c>
@@ -8703,9 +8579,7 @@
         <v>361</v>
       </c>
       <c r="K121" s="5"/>
-      <c r="L121" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L121" s="4"/>
       <c r="M121" s="5" t="s">
         <v>42</v>
       </c>
@@ -8759,9 +8633,7 @@
         <v>361</v>
       </c>
       <c r="K122" s="5"/>
-      <c r="L122" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L122" s="4"/>
       <c r="M122" s="5" t="s">
         <v>42</v>
       </c>
@@ -8788,48 +8660,46 @@
       <c r="V122" s="5"/>
     </row>
     <row r="123" spans="1:22">
-      <c r="A123" s="5" t="s">
+      <c r="A123" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="B123" s="5" t="s">
+      <c r="B123" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E123" s="5"/>
-      <c r="F123" s="5"/>
-      <c r="G123" s="5"/>
-      <c r="H123" s="5"/>
-      <c r="I123" s="5"/>
-      <c r="J123" s="5" t="s">
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+      <c r="H123" s="2"/>
+      <c r="I123" s="2"/>
+      <c r="J123" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K123" s="5"/>
-      <c r="L123" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M123" s="5" t="s">
+      <c r="K123" s="2"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="N123" s="5" t="s">
+      <c r="N123" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O123" s="5" t="s">
+      <c r="O123" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P123" s="5"/>
-      <c r="Q123" s="5"/>
-      <c r="R123" s="5"/>
-      <c r="S123" s="5"/>
-      <c r="T123" s="5"/>
-      <c r="U123" s="5" t="s">
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+      <c r="R123" s="2"/>
+      <c r="S123" s="2"/>
+      <c r="T123" s="2"/>
+      <c r="U123" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V123" s="5"/>
+      <c r="V123" s="2"/>
     </row>
     <row r="124" spans="1:22">
       <c r="A124" s="5" t="s">
@@ -8859,9 +8729,7 @@
         <v>361</v>
       </c>
       <c r="K124" s="5"/>
-      <c r="L124" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L124" s="4"/>
       <c r="M124" s="5" t="s">
         <v>43</v>
       </c>
@@ -8888,48 +8756,46 @@
       <c r="V124" s="5"/>
     </row>
     <row r="125" spans="1:22">
-      <c r="A125" s="5" t="s">
+      <c r="A125" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="B125" s="5" t="s">
+      <c r="B125" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D125" s="5" t="s">
+      <c r="D125" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E125" s="5"/>
-      <c r="F125" s="5"/>
-      <c r="G125" s="5"/>
-      <c r="H125" s="5"/>
-      <c r="I125" s="5"/>
-      <c r="J125" s="5" t="s">
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+      <c r="I125" s="2"/>
+      <c r="J125" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K125" s="5"/>
-      <c r="L125" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M125" s="5" t="s">
+      <c r="K125" s="2"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N125" s="5" t="s">
+      <c r="N125" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O125" s="5" t="s">
+      <c r="O125" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P125" s="5"/>
-      <c r="Q125" s="5"/>
-      <c r="R125" s="5"/>
-      <c r="S125" s="5"/>
-      <c r="T125" s="5"/>
-      <c r="U125" s="5" t="s">
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+      <c r="R125" s="2"/>
+      <c r="S125" s="2"/>
+      <c r="T125" s="2"/>
+      <c r="U125" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V125" s="5"/>
+      <c r="V125" s="2"/>
     </row>
     <row r="126" spans="1:22">
       <c r="A126" s="5" t="s">
@@ -8959,9 +8825,7 @@
         <v>361</v>
       </c>
       <c r="K126" s="5"/>
-      <c r="L126" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L126" s="4"/>
       <c r="M126" s="5" t="s">
         <v>44</v>
       </c>
@@ -9015,9 +8879,7 @@
       <c r="K127" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="L127" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L127" s="4"/>
       <c r="M127" s="5" t="s">
         <v>44</v>
       </c>
@@ -9071,9 +8933,7 @@
         <v>361</v>
       </c>
       <c r="K128" s="5"/>
-      <c r="L128" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L128" s="4"/>
       <c r="M128" s="5" t="s">
         <v>44</v>
       </c>
@@ -9100,48 +8960,46 @@
       <c r="V128" s="5"/>
     </row>
     <row r="129" spans="1:22">
-      <c r="A129" s="5" t="s">
+      <c r="A129" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="B129" s="5" t="s">
+      <c r="B129" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
-      <c r="G129" s="5"/>
-      <c r="H129" s="5"/>
-      <c r="I129" s="5"/>
-      <c r="J129" s="5" t="s">
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K129" s="5"/>
-      <c r="L129" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M129" s="5" t="s">
+      <c r="K129" s="2"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="N129" s="5" t="s">
+      <c r="N129" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O129" s="5" t="s">
+      <c r="O129" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P129" s="5"/>
-      <c r="Q129" s="5"/>
-      <c r="R129" s="5"/>
-      <c r="S129" s="5"/>
-      <c r="T129" s="5"/>
-      <c r="U129" s="5" t="s">
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+      <c r="R129" s="2"/>
+      <c r="S129" s="2"/>
+      <c r="T129" s="2"/>
+      <c r="U129" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V129" s="5"/>
+      <c r="V129" s="2"/>
     </row>
     <row r="130" spans="1:22">
       <c r="A130" s="5" t="s">
@@ -9171,9 +9029,7 @@
       <c r="K130" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="L130" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L130" s="4"/>
       <c r="M130" s="5" t="s">
         <v>45</v>
       </c>
@@ -9227,9 +9083,7 @@
       <c r="K131" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="L131" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L131" s="4"/>
       <c r="M131" s="5" t="s">
         <v>45</v>
       </c>
@@ -9283,9 +9137,7 @@
         <v>380</v>
       </c>
       <c r="K132" s="5"/>
-      <c r="L132" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="5" t="s">
         <v>45</v>
       </c>
@@ -9372,48 +9224,46 @@
       </c>
     </row>
     <row r="134" spans="1:22">
-      <c r="A134" s="5" t="s">
+      <c r="A134" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="B134" s="5" t="s">
+      <c r="B134" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E134" s="5"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="5"/>
-      <c r="H134" s="5"/>
-      <c r="I134" s="5"/>
-      <c r="J134" s="5" t="s">
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2"/>
+      <c r="J134" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K134" s="5"/>
-      <c r="L134" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M134" s="5" t="s">
+      <c r="K134" s="2"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N134" s="5" t="s">
+      <c r="N134" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O134" s="5" t="s">
+      <c r="O134" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P134" s="5"/>
-      <c r="Q134" s="5"/>
-      <c r="R134" s="5"/>
-      <c r="S134" s="5"/>
-      <c r="T134" s="5"/>
-      <c r="U134" s="5" t="s">
+      <c r="P134" s="2"/>
+      <c r="Q134" s="2"/>
+      <c r="R134" s="2"/>
+      <c r="S134" s="2"/>
+      <c r="T134" s="2"/>
+      <c r="U134" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V134" s="5"/>
+      <c r="V134" s="2"/>
     </row>
     <row r="135" spans="1:22">
       <c r="A135" s="5" t="s">
@@ -9443,9 +9293,7 @@
         <v>361</v>
       </c>
       <c r="K135" s="5"/>
-      <c r="L135" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L135" s="4"/>
       <c r="M135" s="5" t="s">
         <v>46</v>
       </c>
@@ -9499,9 +9347,7 @@
       <c r="K136" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="L136" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L136" s="4"/>
       <c r="M136" s="5" t="s">
         <v>46</v>
       </c>
@@ -9555,9 +9401,7 @@
         <v>361</v>
       </c>
       <c r="K137" s="5"/>
-      <c r="L137" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L137" s="4"/>
       <c r="M137" s="5" t="s">
         <v>46</v>
       </c>
@@ -9611,9 +9455,7 @@
         <v>361</v>
       </c>
       <c r="K138" s="5"/>
-      <c r="L138" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L138" s="4"/>
       <c r="M138" s="5" t="s">
         <v>46</v>
       </c>
@@ -9667,9 +9509,7 @@
         <v>383</v>
       </c>
       <c r="K139" s="5"/>
-      <c r="L139" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L139" s="4"/>
       <c r="M139" s="5" t="s">
         <v>46</v>
       </c>
@@ -9723,9 +9563,7 @@
         <v>383</v>
       </c>
       <c r="K140" s="5"/>
-      <c r="L140" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L140" s="4"/>
       <c r="M140" s="5" t="s">
         <v>46</v>
       </c>
@@ -9812,50 +9650,48 @@
       </c>
     </row>
     <row r="142" spans="1:22">
-      <c r="A142" s="5" t="s">
+      <c r="A142" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="B142" s="5" t="s">
+      <c r="B142" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C142" s="5" t="s">
+      <c r="C142" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D142" s="5" t="s">
+      <c r="D142" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5" t="s">
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="2"/>
+      <c r="I142" s="2"/>
+      <c r="J142" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="K142" s="5" t="s">
+      <c r="K142" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="L142" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M142" s="5" t="s">
+      <c r="L142" s="4"/>
+      <c r="M142" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="N142" s="5" t="s">
+      <c r="N142" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O142" s="5" t="s">
+      <c r="O142" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P142" s="5"/>
-      <c r="Q142" s="5"/>
-      <c r="R142" s="5"/>
-      <c r="S142" s="5"/>
-      <c r="T142" s="5"/>
-      <c r="U142" s="5" t="s">
+      <c r="P142" s="2"/>
+      <c r="Q142" s="2"/>
+      <c r="R142" s="2"/>
+      <c r="S142" s="2"/>
+      <c r="T142" s="2"/>
+      <c r="U142" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="V142" s="5" t="s">
+      <c r="V142" s="2" t="s">
         <v>413</v>
       </c>
     </row>
@@ -9887,9 +9723,7 @@
         <v>361</v>
       </c>
       <c r="K143" s="5"/>
-      <c r="L143" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L143" s="4"/>
       <c r="M143" s="5" t="s">
         <v>47</v>
       </c>
@@ -9943,9 +9777,7 @@
       <c r="K144" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="L144" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L144" s="4"/>
       <c r="M144" s="5" t="s">
         <v>47</v>
       </c>
@@ -9999,9 +9831,7 @@
         <v>361</v>
       </c>
       <c r="K145" s="5"/>
-      <c r="L145" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L145" s="4"/>
       <c r="M145" s="5" t="s">
         <v>47</v>
       </c>
@@ -10055,9 +9885,7 @@
         <v>386</v>
       </c>
       <c r="K146" s="5"/>
-      <c r="L146" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L146" s="4"/>
       <c r="M146" s="5" t="s">
         <v>47</v>
       </c>
@@ -10144,50 +9972,48 @@
       </c>
     </row>
     <row r="148" spans="1:22">
-      <c r="A148" s="5" t="s">
+      <c r="A148" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="B148" s="5" t="s">
+      <c r="B148" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E148" s="5"/>
-      <c r="F148" s="5"/>
-      <c r="G148" s="5"/>
-      <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
-      <c r="J148" s="5" t="s">
+      <c r="E148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+      <c r="H148" s="2"/>
+      <c r="I148" s="2"/>
+      <c r="J148" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K148" s="5" t="s">
+      <c r="K148" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="L148" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M148" s="5" t="s">
+      <c r="L148" s="4"/>
+      <c r="M148" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="N148" s="5" t="s">
+      <c r="N148" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O148" s="5" t="s">
+      <c r="O148" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P148" s="5"/>
-      <c r="Q148" s="5"/>
-      <c r="R148" s="5"/>
-      <c r="S148" s="5"/>
-      <c r="T148" s="5"/>
-      <c r="U148" s="5" t="s">
+      <c r="P148" s="2"/>
+      <c r="Q148" s="2"/>
+      <c r="R148" s="2"/>
+      <c r="S148" s="2"/>
+      <c r="T148" s="2"/>
+      <c r="U148" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V148" s="5" t="s">
+      <c r="V148" s="2" t="s">
         <v>416</v>
       </c>
     </row>
@@ -10219,9 +10045,7 @@
         <v>361</v>
       </c>
       <c r="K149" s="5"/>
-      <c r="L149" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L149" s="4"/>
       <c r="M149" s="5" t="s">
         <v>48</v>
       </c>
@@ -10273,9 +10097,7 @@
         <v>363</v>
       </c>
       <c r="K150" s="5"/>
-      <c r="L150" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L150" s="4"/>
       <c r="M150" s="5" t="s">
         <v>48</v>
       </c>
@@ -10327,9 +10149,7 @@
         <v>361</v>
       </c>
       <c r="K151" s="5"/>
-      <c r="L151" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L151" s="4"/>
       <c r="M151" s="5" t="s">
         <v>48</v>
       </c>
@@ -10356,50 +10176,48 @@
       <c r="V151" s="5"/>
     </row>
     <row r="152" spans="1:22">
-      <c r="A152" s="5" t="s">
+      <c r="A152" s="2" t="s">
         <v>587</v>
       </c>
-      <c r="B152" s="5" t="s">
+      <c r="B152" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C152" s="5" t="s">
+      <c r="C152" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D152" s="5" t="s">
+      <c r="D152" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
-      <c r="G152" s="5"/>
-      <c r="H152" s="5"/>
-      <c r="I152" s="5"/>
-      <c r="J152" s="5" t="s">
+      <c r="E152" s="2"/>
+      <c r="F152" s="2"/>
+      <c r="G152" s="2"/>
+      <c r="H152" s="2"/>
+      <c r="I152" s="2"/>
+      <c r="J152" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K152" s="5" t="s">
+      <c r="K152" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="L152" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M152" s="5" t="s">
+      <c r="L152" s="4"/>
+      <c r="M152" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="N152" s="5" t="s">
+      <c r="N152" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="O152" s="5" t="s">
+      <c r="O152" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P152" s="5"/>
-      <c r="Q152" s="5"/>
-      <c r="R152" s="5"/>
-      <c r="S152" s="5"/>
-      <c r="T152" s="5"/>
-      <c r="U152" s="5" t="s">
+      <c r="P152" s="2"/>
+      <c r="Q152" s="2"/>
+      <c r="R152" s="2"/>
+      <c r="S152" s="2"/>
+      <c r="T152" s="2"/>
+      <c r="U152" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V152" s="5" t="s">
+      <c r="V152" s="2" t="s">
         <v>416</v>
       </c>
     </row>
@@ -10431,9 +10249,7 @@
         <v>361</v>
       </c>
       <c r="K153" s="5"/>
-      <c r="L153" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L153" s="4"/>
       <c r="M153" s="5" t="s">
         <v>49</v>
       </c>
@@ -10485,9 +10301,7 @@
         <v>363</v>
       </c>
       <c r="K154" s="5"/>
-      <c r="L154" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L154" s="4"/>
       <c r="M154" s="5" t="s">
         <v>49</v>
       </c>
@@ -10539,9 +10353,7 @@
         <v>361</v>
       </c>
       <c r="K155" s="5"/>
-      <c r="L155" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L155" s="4"/>
       <c r="M155" s="5" t="s">
         <v>49</v>
       </c>
@@ -10568,48 +10380,46 @@
       <c r="V155" s="5"/>
     </row>
     <row r="156" spans="1:22">
-      <c r="A156" s="5" t="s">
+      <c r="A156" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B156" s="5" t="s">
+      <c r="B156" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C156" s="5" t="s">
+      <c r="C156" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D156" s="5" t="s">
+      <c r="D156" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E156" s="5"/>
-      <c r="F156" s="5"/>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5" t="s">
+      <c r="E156" s="2"/>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K156" s="5"/>
-      <c r="L156" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M156" s="5" t="s">
+      <c r="K156" s="2"/>
+      <c r="L156" s="4"/>
+      <c r="M156" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N156" s="5" t="s">
+      <c r="N156" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O156" s="5" t="s">
+      <c r="O156" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P156" s="5"/>
-      <c r="Q156" s="5"/>
-      <c r="R156" s="5"/>
-      <c r="S156" s="5"/>
-      <c r="T156" s="5"/>
-      <c r="U156" s="5" t="s">
+      <c r="P156" s="2"/>
+      <c r="Q156" s="2"/>
+      <c r="R156" s="2"/>
+      <c r="S156" s="2"/>
+      <c r="T156" s="2"/>
+      <c r="U156" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V156" s="5"/>
+      <c r="V156" s="2"/>
     </row>
     <row r="157" spans="1:22">
       <c r="A157" s="5" t="s">
@@ -10639,9 +10449,7 @@
         <v>361</v>
       </c>
       <c r="K157" s="5"/>
-      <c r="L157" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L157" s="4"/>
       <c r="M157" s="5" t="s">
         <v>50</v>
       </c>
@@ -10695,9 +10503,7 @@
       <c r="K158" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L158" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L158" s="4"/>
       <c r="M158" s="5" t="s">
         <v>50</v>
       </c>
@@ -10724,48 +10530,46 @@
       </c>
     </row>
     <row r="159" spans="1:22">
-      <c r="A159" s="5" t="s">
+      <c r="A159" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="B159" s="5" t="s">
+      <c r="B159" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C159" s="5" t="s">
+      <c r="C159" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="D159" s="5" t="s">
+      <c r="D159" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E159" s="5"/>
-      <c r="F159" s="5"/>
-      <c r="G159" s="5"/>
-      <c r="H159" s="5"/>
-      <c r="I159" s="5"/>
-      <c r="J159" s="5" t="s">
+      <c r="E159" s="2"/>
+      <c r="F159" s="2"/>
+      <c r="G159" s="2"/>
+      <c r="H159" s="2"/>
+      <c r="I159" s="2"/>
+      <c r="J159" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K159" s="5"/>
-      <c r="L159" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M159" s="5" t="s">
+      <c r="K159" s="2"/>
+      <c r="L159" s="4"/>
+      <c r="M159" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N159" s="5" t="s">
+      <c r="N159" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O159" s="5" t="s">
+      <c r="O159" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P159" s="5"/>
-      <c r="Q159" s="5"/>
-      <c r="R159" s="5"/>
-      <c r="S159" s="5"/>
-      <c r="T159" s="5"/>
-      <c r="U159" s="5" t="s">
+      <c r="P159" s="2"/>
+      <c r="Q159" s="2"/>
+      <c r="R159" s="2"/>
+      <c r="S159" s="2"/>
+      <c r="T159" s="2"/>
+      <c r="U159" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V159" s="5"/>
+      <c r="V159" s="2"/>
     </row>
     <row r="160" spans="1:22">
       <c r="A160" s="5" t="s">
@@ -10795,9 +10599,7 @@
         <v>361</v>
       </c>
       <c r="K160" s="5"/>
-      <c r="L160" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L160" s="4"/>
       <c r="M160" s="5" t="s">
         <v>51</v>
       </c>
@@ -10851,9 +10653,7 @@
       <c r="K161" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L161" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L161" s="4"/>
       <c r="M161" s="5" t="s">
         <v>51</v>
       </c>
@@ -10880,48 +10680,46 @@
       </c>
     </row>
     <row r="162" spans="1:22">
-      <c r="A162" s="5" t="s">
+      <c r="A162" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B162" s="5" t="s">
+      <c r="B162" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C162" s="5" t="s">
+      <c r="C162" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D162" s="5" t="s">
+      <c r="D162" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
-      <c r="G162" s="5"/>
-      <c r="H162" s="5"/>
-      <c r="I162" s="5"/>
-      <c r="J162" s="5" t="s">
+      <c r="E162" s="2"/>
+      <c r="F162" s="2"/>
+      <c r="G162" s="2"/>
+      <c r="H162" s="2"/>
+      <c r="I162" s="2"/>
+      <c r="J162" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K162" s="5"/>
-      <c r="L162" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M162" s="5" t="s">
+      <c r="K162" s="2"/>
+      <c r="L162" s="4"/>
+      <c r="M162" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N162" s="5" t="s">
+      <c r="N162" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O162" s="5" t="s">
+      <c r="O162" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="P162" s="5"/>
-      <c r="Q162" s="5"/>
-      <c r="R162" s="5"/>
-      <c r="S162" s="5"/>
-      <c r="T162" s="5"/>
-      <c r="U162" s="5" t="s">
+      <c r="P162" s="2"/>
+      <c r="Q162" s="2"/>
+      <c r="R162" s="2"/>
+      <c r="S162" s="2"/>
+      <c r="T162" s="2"/>
+      <c r="U162" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V162" s="5"/>
+      <c r="V162" s="2"/>
     </row>
     <row r="163" spans="1:22">
       <c r="A163" s="5" t="s">
@@ -10951,9 +10749,7 @@
         <v>361</v>
       </c>
       <c r="K163" s="5"/>
-      <c r="L163" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L163" s="4"/>
       <c r="M163" s="5" t="s">
         <v>52</v>
       </c>
@@ -11007,9 +10803,7 @@
       <c r="K164" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="L164" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L164" s="4"/>
       <c r="M164" s="5" t="s">
         <v>52</v>
       </c>
@@ -11063,9 +10857,7 @@
         <v>389</v>
       </c>
       <c r="K165" s="5"/>
-      <c r="L165" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L165" s="4"/>
       <c r="M165" s="5" t="s">
         <v>52</v>
       </c>
@@ -11119,9 +10911,7 @@
         <v>390</v>
       </c>
       <c r="K166" s="5"/>
-      <c r="L166" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L166" s="4"/>
       <c r="M166" s="5" t="s">
         <v>52</v>
       </c>
@@ -11208,48 +10998,46 @@
       </c>
     </row>
     <row r="168" spans="1:22">
-      <c r="A168" s="5" t="s">
+      <c r="A168" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="B168" s="5" t="s">
+      <c r="B168" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C168" s="5" t="s">
+      <c r="C168" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="D168" s="5" t="s">
+      <c r="D168" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
-      <c r="G168" s="5"/>
-      <c r="H168" s="5"/>
-      <c r="I168" s="5"/>
-      <c r="J168" s="5" t="s">
+      <c r="E168" s="2"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="2"/>
+      <c r="H168" s="2"/>
+      <c r="I168" s="2"/>
+      <c r="J168" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K168" s="5"/>
-      <c r="L168" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M168" s="5" t="s">
+      <c r="K168" s="2"/>
+      <c r="L168" s="4"/>
+      <c r="M168" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="N168" s="5" t="s">
+      <c r="N168" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="O168" s="5" t="s">
+      <c r="O168" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P168" s="5"/>
-      <c r="Q168" s="5"/>
-      <c r="R168" s="5"/>
-      <c r="S168" s="5"/>
-      <c r="T168" s="5"/>
-      <c r="U168" s="5" t="s">
+      <c r="P168" s="2"/>
+      <c r="Q168" s="2"/>
+      <c r="R168" s="2"/>
+      <c r="S168" s="2"/>
+      <c r="T168" s="2"/>
+      <c r="U168" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V168" s="5"/>
+      <c r="V168" s="2"/>
     </row>
     <row r="169" spans="1:22">
       <c r="A169" s="5" t="s">
@@ -11279,9 +11067,7 @@
         <v>361</v>
       </c>
       <c r="K169" s="5"/>
-      <c r="L169" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L169" s="4"/>
       <c r="M169" s="5" t="s">
         <v>53</v>
       </c>
@@ -11335,9 +11121,7 @@
         <v>361</v>
       </c>
       <c r="K170" s="5"/>
-      <c r="L170" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L170" s="4"/>
       <c r="M170" s="5" t="s">
         <v>53</v>
       </c>
@@ -11391,9 +11175,7 @@
       <c r="K171" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="L171" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L171" s="4"/>
       <c r="M171" s="5" t="s">
         <v>53</v>
       </c>
@@ -11447,9 +11229,7 @@
         <v>361</v>
       </c>
       <c r="K172" s="5"/>
-      <c r="L172" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L172" s="4"/>
       <c r="M172" s="5" t="s">
         <v>53</v>
       </c>
@@ -11503,9 +11283,7 @@
         <v>361</v>
       </c>
       <c r="K173" s="5"/>
-      <c r="L173" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L173" s="4"/>
       <c r="M173" s="5" t="s">
         <v>53</v>
       </c>
@@ -11559,9 +11337,7 @@
         <v>361</v>
       </c>
       <c r="K174" s="5"/>
-      <c r="L174" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L174" s="4"/>
       <c r="M174" s="5" t="s">
         <v>53</v>
       </c>
@@ -11588,48 +11364,46 @@
       <c r="V174" s="5"/>
     </row>
     <row r="175" spans="1:22">
-      <c r="A175" s="5" t="s">
+      <c r="A175" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="B175" s="5" t="s">
+      <c r="B175" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C175" s="5" t="s">
+      <c r="C175" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D175" s="5" t="s">
+      <c r="D175" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E175" s="5"/>
-      <c r="F175" s="5"/>
-      <c r="G175" s="5"/>
-      <c r="H175" s="5"/>
-      <c r="I175" s="5"/>
-      <c r="J175" s="5" t="s">
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K175" s="5"/>
-      <c r="L175" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M175" s="5" t="s">
+      <c r="K175" s="2"/>
+      <c r="L175" s="4"/>
+      <c r="M175" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="N175" s="5" t="s">
+      <c r="N175" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O175" s="5" t="s">
+      <c r="O175" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P175" s="5"/>
-      <c r="Q175" s="5"/>
-      <c r="R175" s="5"/>
-      <c r="S175" s="5"/>
-      <c r="T175" s="5"/>
-      <c r="U175" s="5" t="s">
+      <c r="P175" s="2"/>
+      <c r="Q175" s="2"/>
+      <c r="R175" s="2"/>
+      <c r="S175" s="2"/>
+      <c r="T175" s="2"/>
+      <c r="U175" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V175" s="5"/>
+      <c r="V175" s="2"/>
     </row>
     <row r="176" spans="1:22">
       <c r="A176" s="5" t="s">
@@ -11659,9 +11433,7 @@
         <v>361</v>
       </c>
       <c r="K176" s="5"/>
-      <c r="L176" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L176" s="4"/>
       <c r="M176" s="5" t="s">
         <v>54</v>
       </c>
@@ -11715,9 +11487,7 @@
         <v>361</v>
       </c>
       <c r="K177" s="5"/>
-      <c r="L177" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L177" s="4"/>
       <c r="M177" s="5" t="s">
         <v>54</v>
       </c>
@@ -11771,9 +11541,7 @@
         <v>361</v>
       </c>
       <c r="K178" s="5"/>
-      <c r="L178" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L178" s="4"/>
       <c r="M178" s="5" t="s">
         <v>54</v>
       </c>
@@ -11800,48 +11568,46 @@
       <c r="V178" s="5"/>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E179" s="5"/>
-      <c r="F179" s="5"/>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5" t="s">
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K179" s="5"/>
-      <c r="L179" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M179" s="5" t="s">
+      <c r="K179" s="2"/>
+      <c r="L179" s="4"/>
+      <c r="M179" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="N179" s="5" t="s">
+      <c r="N179" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O179" s="5" t="s">
+      <c r="O179" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P179" s="5"/>
-      <c r="Q179" s="5"/>
-      <c r="R179" s="5"/>
-      <c r="S179" s="5"/>
-      <c r="T179" s="5"/>
-      <c r="U179" s="5" t="s">
+      <c r="P179" s="2"/>
+      <c r="Q179" s="2"/>
+      <c r="R179" s="2"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+      <c r="U179" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V179" s="5"/>
+      <c r="V179" s="2"/>
     </row>
     <row r="180" spans="1:22">
       <c r="A180" s="5" t="s">
@@ -11871,9 +11637,7 @@
         <v>361</v>
       </c>
       <c r="K180" s="5"/>
-      <c r="L180" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L180" s="4"/>
       <c r="M180" s="5" t="s">
         <v>55</v>
       </c>
@@ -11927,9 +11691,7 @@
       <c r="K181" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="L181" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L181" s="4"/>
       <c r="M181" s="5" t="s">
         <v>55</v>
       </c>
@@ -11956,48 +11718,46 @@
       </c>
     </row>
     <row r="182" spans="1:22">
-      <c r="A182" s="5" t="s">
+      <c r="A182" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="B182" s="5" t="s">
+      <c r="B182" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C182" s="5" t="s">
+      <c r="C182" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D182" s="5" t="s">
+      <c r="D182" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E182" s="5"/>
-      <c r="F182" s="5"/>
-      <c r="G182" s="5"/>
-      <c r="H182" s="5"/>
-      <c r="I182" s="5"/>
-      <c r="J182" s="5" t="s">
+      <c r="E182" s="2"/>
+      <c r="F182" s="2"/>
+      <c r="G182" s="2"/>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K182" s="5"/>
-      <c r="L182" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M182" s="5" t="s">
+      <c r="K182" s="2"/>
+      <c r="L182" s="4"/>
+      <c r="M182" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="N182" s="5" t="s">
+      <c r="N182" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O182" s="5" t="s">
+      <c r="O182" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P182" s="5"/>
-      <c r="Q182" s="5"/>
-      <c r="R182" s="5"/>
-      <c r="S182" s="5"/>
-      <c r="T182" s="5"/>
-      <c r="U182" s="5" t="s">
+      <c r="P182" s="2"/>
+      <c r="Q182" s="2"/>
+      <c r="R182" s="2"/>
+      <c r="S182" s="2"/>
+      <c r="T182" s="2"/>
+      <c r="U182" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V182" s="5"/>
+      <c r="V182" s="2"/>
     </row>
     <row r="183" spans="1:22">
       <c r="A183" s="5" t="s">
@@ -12027,9 +11787,7 @@
         <v>361</v>
       </c>
       <c r="K183" s="5"/>
-      <c r="L183" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L183" s="4"/>
       <c r="M183" s="5" t="s">
         <v>56</v>
       </c>
@@ -12083,9 +11841,7 @@
       <c r="K184" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="L184" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L184" s="4"/>
       <c r="M184" s="5" t="s">
         <v>56</v>
       </c>
@@ -12112,48 +11868,46 @@
       </c>
     </row>
     <row r="185" spans="1:22">
-      <c r="A185" s="5" t="s">
+      <c r="A185" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="B185" s="5" t="s">
+      <c r="B185" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C185" s="5" t="s">
+      <c r="C185" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="D185" s="5" t="s">
+      <c r="D185" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
-      <c r="H185" s="5"/>
-      <c r="I185" s="5"/>
-      <c r="J185" s="5" t="s">
+      <c r="E185" s="2"/>
+      <c r="F185" s="2"/>
+      <c r="G185" s="2"/>
+      <c r="H185" s="2"/>
+      <c r="I185" s="2"/>
+      <c r="J185" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K185" s="5"/>
-      <c r="L185" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M185" s="5" t="s">
+      <c r="K185" s="2"/>
+      <c r="L185" s="4"/>
+      <c r="M185" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="N185" s="5" t="s">
+      <c r="N185" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O185" s="5" t="s">
+      <c r="O185" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P185" s="5"/>
-      <c r="Q185" s="5"/>
-      <c r="R185" s="5"/>
-      <c r="S185" s="5"/>
-      <c r="T185" s="5"/>
-      <c r="U185" s="5" t="s">
+      <c r="P185" s="2"/>
+      <c r="Q185" s="2"/>
+      <c r="R185" s="2"/>
+      <c r="S185" s="2"/>
+      <c r="T185" s="2"/>
+      <c r="U185" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V185" s="5"/>
+      <c r="V185" s="2"/>
     </row>
     <row r="186" spans="1:22">
       <c r="A186" s="5" t="s">
@@ -12183,9 +11937,7 @@
         <v>361</v>
       </c>
       <c r="K186" s="5"/>
-      <c r="L186" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L186" s="4"/>
       <c r="M186" s="5" t="s">
         <v>57</v>
       </c>
@@ -12239,9 +11991,7 @@
       <c r="K187" s="5" t="s">
         <v>423</v>
       </c>
-      <c r="L187" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L187" s="4"/>
       <c r="M187" s="5" t="s">
         <v>57</v>
       </c>
@@ -12268,48 +12018,46 @@
       </c>
     </row>
     <row r="188" spans="1:22">
-      <c r="A188" s="5" t="s">
+      <c r="A188" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="B188" s="5" t="s">
+      <c r="B188" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C188" s="5" t="s">
+      <c r="C188" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D188" s="5" t="s">
+      <c r="D188" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E188" s="5"/>
-      <c r="F188" s="5"/>
-      <c r="G188" s="5"/>
-      <c r="H188" s="5"/>
-      <c r="I188" s="5"/>
-      <c r="J188" s="5" t="s">
+      <c r="E188" s="2"/>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K188" s="5"/>
-      <c r="L188" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M188" s="5" t="s">
+      <c r="K188" s="2"/>
+      <c r="L188" s="4"/>
+      <c r="M188" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="N188" s="5" t="s">
+      <c r="N188" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O188" s="5" t="s">
+      <c r="O188" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="P188" s="5"/>
-      <c r="Q188" s="5"/>
-      <c r="R188" s="5"/>
-      <c r="S188" s="5"/>
-      <c r="T188" s="5"/>
-      <c r="U188" s="5" t="s">
+      <c r="P188" s="2"/>
+      <c r="Q188" s="2"/>
+      <c r="R188" s="2"/>
+      <c r="S188" s="2"/>
+      <c r="T188" s="2"/>
+      <c r="U188" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V188" s="5"/>
+      <c r="V188" s="2"/>
     </row>
     <row r="189" spans="1:22">
       <c r="A189" s="5" t="s">
@@ -12339,9 +12087,7 @@
         <v>361</v>
       </c>
       <c r="K189" s="5"/>
-      <c r="L189" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L189" s="4"/>
       <c r="M189" s="5" t="s">
         <v>58</v>
       </c>
@@ -12395,9 +12141,7 @@
         <v>395</v>
       </c>
       <c r="K190" s="5"/>
-      <c r="L190" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L190" s="4"/>
       <c r="M190" s="5" t="s">
         <v>58</v>
       </c>
@@ -12451,9 +12195,7 @@
         <v>361</v>
       </c>
       <c r="K191" s="5"/>
-      <c r="L191" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L191" s="4"/>
       <c r="M191" s="5" t="s">
         <v>58</v>
       </c>
@@ -12582,48 +12324,46 @@
       </c>
     </row>
     <row r="194" spans="1:22">
-      <c r="A194" s="5" t="s">
+      <c r="A194" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="B194" s="5" t="s">
+      <c r="B194" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C194" s="5" t="s">
+      <c r="C194" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D194" s="5" t="s">
+      <c r="D194" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E194" s="5"/>
-      <c r="F194" s="5"/>
-      <c r="G194" s="5"/>
-      <c r="H194" s="5"/>
-      <c r="I194" s="5"/>
-      <c r="J194" s="5" t="s">
+      <c r="E194" s="2"/>
+      <c r="F194" s="2"/>
+      <c r="G194" s="2"/>
+      <c r="H194" s="2"/>
+      <c r="I194" s="2"/>
+      <c r="J194" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K194" s="5"/>
-      <c r="L194" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M194" s="5" t="s">
+      <c r="K194" s="2"/>
+      <c r="L194" s="4"/>
+      <c r="M194" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N194" s="5" t="s">
+      <c r="N194" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O194" s="5" t="s">
+      <c r="O194" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="P194" s="5"/>
-      <c r="Q194" s="5"/>
-      <c r="R194" s="5"/>
-      <c r="S194" s="5"/>
-      <c r="T194" s="5"/>
-      <c r="U194" s="5" t="s">
+      <c r="P194" s="2"/>
+      <c r="Q194" s="2"/>
+      <c r="R194" s="2"/>
+      <c r="S194" s="2"/>
+      <c r="T194" s="2"/>
+      <c r="U194" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V194" s="5"/>
+      <c r="V194" s="2"/>
     </row>
     <row r="195" spans="1:22">
       <c r="A195" s="5" t="s">
@@ -12653,9 +12393,7 @@
         <v>361</v>
       </c>
       <c r="K195" s="5"/>
-      <c r="L195" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L195" s="4"/>
       <c r="M195" s="5" t="s">
         <v>59</v>
       </c>
@@ -12709,9 +12447,7 @@
       <c r="K196" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="L196" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L196" s="4"/>
       <c r="M196" s="5" t="s">
         <v>59</v>
       </c>
@@ -12738,44 +12474,42 @@
       </c>
     </row>
     <row r="197" spans="1:22">
-      <c r="A197" s="5" t="s">
+      <c r="A197" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="B197" s="5" t="s">
+      <c r="B197" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C197" s="5"/>
-      <c r="D197" s="5" t="s">
+      <c r="C197" s="2"/>
+      <c r="D197" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="E197" s="5"/>
-      <c r="F197" s="5"/>
-      <c r="G197" s="5"/>
-      <c r="H197" s="5"/>
-      <c r="I197" s="5"/>
-      <c r="J197" s="5" t="s">
+      <c r="E197" s="2"/>
+      <c r="F197" s="2"/>
+      <c r="G197" s="2"/>
+      <c r="H197" s="2"/>
+      <c r="I197" s="2"/>
+      <c r="J197" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K197" s="5"/>
-      <c r="L197" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M197" s="5" t="s">
+      <c r="K197" s="2"/>
+      <c r="L197" s="4"/>
+      <c r="M197" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="N197" s="5"/>
-      <c r="O197" s="5" t="s">
+      <c r="N197" s="2"/>
+      <c r="O197" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="P197" s="5"/>
-      <c r="Q197" s="5"/>
-      <c r="R197" s="5"/>
-      <c r="S197" s="5"/>
-      <c r="T197" s="5"/>
-      <c r="U197" s="5" t="s">
+      <c r="P197" s="2"/>
+      <c r="Q197" s="2"/>
+      <c r="R197" s="2"/>
+      <c r="S197" s="2"/>
+      <c r="T197" s="2"/>
+      <c r="U197" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V197" s="5"/>
+      <c r="V197" s="2"/>
     </row>
     <row r="198" spans="1:22">
       <c r="A198" s="5" t="s">
@@ -12803,9 +12537,7 @@
         <v>361</v>
       </c>
       <c r="K198" s="5"/>
-      <c r="L198" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L198" s="4"/>
       <c r="M198" s="5" t="s">
         <v>60</v>
       </c>
@@ -12830,48 +12562,46 @@
       <c r="V198" s="5"/>
     </row>
     <row r="199" spans="1:22">
-      <c r="A199" s="5" t="s">
+      <c r="A199" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="B199" s="5" t="s">
+      <c r="B199" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C199" s="5" t="s">
+      <c r="C199" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D199" s="5" t="s">
+      <c r="D199" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E199" s="5"/>
-      <c r="F199" s="5"/>
-      <c r="G199" s="5"/>
-      <c r="H199" s="5"/>
-      <c r="I199" s="5"/>
-      <c r="J199" s="5" t="s">
+      <c r="E199" s="2"/>
+      <c r="F199" s="2"/>
+      <c r="G199" s="2"/>
+      <c r="H199" s="2"/>
+      <c r="I199" s="2"/>
+      <c r="J199" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K199" s="5"/>
-      <c r="L199" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M199" s="5" t="s">
+      <c r="K199" s="2"/>
+      <c r="L199" s="4"/>
+      <c r="M199" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N199" s="5" t="s">
+      <c r="N199" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O199" s="5" t="s">
+      <c r="O199" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P199" s="5"/>
-      <c r="Q199" s="5"/>
-      <c r="R199" s="5"/>
-      <c r="S199" s="5"/>
-      <c r="T199" s="5"/>
-      <c r="U199" s="5" t="s">
+      <c r="P199" s="2"/>
+      <c r="Q199" s="2"/>
+      <c r="R199" s="2"/>
+      <c r="S199" s="2"/>
+      <c r="T199" s="2"/>
+      <c r="U199" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V199" s="5"/>
+      <c r="V199" s="2"/>
     </row>
     <row r="200" spans="1:22">
       <c r="A200" s="5" t="s">
@@ -12901,9 +12631,7 @@
         <v>361</v>
       </c>
       <c r="K200" s="5"/>
-      <c r="L200" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L200" s="4"/>
       <c r="M200" s="5" t="s">
         <v>61</v>
       </c>
@@ -12957,9 +12685,7 @@
       <c r="K201" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L201" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L201" s="4"/>
       <c r="M201" s="5" t="s">
         <v>61</v>
       </c>
@@ -12986,48 +12712,46 @@
       </c>
     </row>
     <row r="202" spans="1:22">
-      <c r="A202" s="5" t="s">
+      <c r="A202" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="B202" s="5" t="s">
+      <c r="B202" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C202" s="5" t="s">
+      <c r="C202" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D202" s="5" t="s">
+      <c r="D202" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E202" s="5"/>
-      <c r="F202" s="5"/>
-      <c r="G202" s="5"/>
-      <c r="H202" s="5"/>
-      <c r="I202" s="5"/>
-      <c r="J202" s="5" t="s">
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="2"/>
+      <c r="I202" s="2"/>
+      <c r="J202" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K202" s="5"/>
-      <c r="L202" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M202" s="5" t="s">
+      <c r="K202" s="2"/>
+      <c r="L202" s="4"/>
+      <c r="M202" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="N202" s="5" t="s">
+      <c r="N202" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O202" s="5" t="s">
+      <c r="O202" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P202" s="5"/>
-      <c r="Q202" s="5"/>
-      <c r="R202" s="5"/>
-      <c r="S202" s="5"/>
-      <c r="T202" s="5"/>
-      <c r="U202" s="5" t="s">
+      <c r="P202" s="2"/>
+      <c r="Q202" s="2"/>
+      <c r="R202" s="2"/>
+      <c r="S202" s="2"/>
+      <c r="T202" s="2"/>
+      <c r="U202" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V202" s="5"/>
+      <c r="V202" s="2"/>
     </row>
     <row r="203" spans="1:22">
       <c r="A203" s="5" t="s">
@@ -13057,9 +12781,7 @@
         <v>361</v>
       </c>
       <c r="K203" s="5"/>
-      <c r="L203" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L203" s="4"/>
       <c r="M203" s="5" t="s">
         <v>62</v>
       </c>
@@ -13113,9 +12835,7 @@
       <c r="K204" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L204" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L204" s="4"/>
       <c r="M204" s="5" t="s">
         <v>62</v>
       </c>
@@ -13142,48 +12862,46 @@
       </c>
     </row>
     <row r="205" spans="1:22">
-      <c r="A205" s="5" t="s">
+      <c r="A205" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="B205" s="5" t="s">
+      <c r="B205" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C205" s="5" t="s">
+      <c r="C205" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D205" s="5" t="s">
+      <c r="D205" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="E205" s="5"/>
-      <c r="F205" s="5"/>
-      <c r="G205" s="5"/>
-      <c r="H205" s="5"/>
-      <c r="I205" s="5"/>
-      <c r="J205" s="5" t="s">
+      <c r="E205" s="2"/>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="2"/>
+      <c r="I205" s="2"/>
+      <c r="J205" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K205" s="5"/>
-      <c r="L205" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M205" s="5" t="s">
+      <c r="K205" s="2"/>
+      <c r="L205" s="4"/>
+      <c r="M205" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N205" s="5" t="s">
+      <c r="N205" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O205" s="5" t="s">
+      <c r="O205" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P205" s="5"/>
-      <c r="Q205" s="5"/>
-      <c r="R205" s="5"/>
-      <c r="S205" s="5"/>
-      <c r="T205" s="5"/>
-      <c r="U205" s="5" t="s">
+      <c r="P205" s="2"/>
+      <c r="Q205" s="2"/>
+      <c r="R205" s="2"/>
+      <c r="S205" s="2"/>
+      <c r="T205" s="2"/>
+      <c r="U205" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V205" s="5"/>
+      <c r="V205" s="2"/>
     </row>
     <row r="206" spans="1:22">
       <c r="A206" s="5" t="s">
@@ -13213,9 +12931,7 @@
         <v>361</v>
       </c>
       <c r="K206" s="5"/>
-      <c r="L206" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L206" s="4"/>
       <c r="M206" s="5" t="s">
         <v>63</v>
       </c>
@@ -13267,9 +12983,7 @@
         <v>361</v>
       </c>
       <c r="K207" s="5"/>
-      <c r="L207" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L207" s="4"/>
       <c r="M207" s="5" t="s">
         <v>63</v>
       </c>
@@ -13294,48 +13008,46 @@
       <c r="V207" s="5"/>
     </row>
     <row r="208" spans="1:22">
-      <c r="A208" s="5" t="s">
+      <c r="A208" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="B208" s="5" t="s">
+      <c r="B208" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C208" s="5" t="s">
+      <c r="C208" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="D208" s="5" t="s">
+      <c r="D208" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="E208" s="5"/>
-      <c r="F208" s="5"/>
-      <c r="G208" s="5"/>
-      <c r="H208" s="5"/>
-      <c r="I208" s="5"/>
-      <c r="J208" s="5" t="s">
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="2"/>
+      <c r="I208" s="2"/>
+      <c r="J208" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K208" s="5"/>
-      <c r="L208" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M208" s="5" t="s">
+      <c r="K208" s="2"/>
+      <c r="L208" s="4"/>
+      <c r="M208" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="N208" s="5" t="s">
+      <c r="N208" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="O208" s="5" t="s">
+      <c r="O208" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="P208" s="5"/>
-      <c r="Q208" s="5"/>
-      <c r="R208" s="5"/>
-      <c r="S208" s="5"/>
-      <c r="T208" s="5"/>
-      <c r="U208" s="5" t="s">
+      <c r="P208" s="2"/>
+      <c r="Q208" s="2"/>
+      <c r="R208" s="2"/>
+      <c r="S208" s="2"/>
+      <c r="T208" s="2"/>
+      <c r="U208" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V208" s="5"/>
+      <c r="V208" s="2"/>
     </row>
     <row r="209" spans="1:22">
       <c r="A209" s="5" t="s">
@@ -13365,9 +13077,7 @@
         <v>361</v>
       </c>
       <c r="K209" s="5"/>
-      <c r="L209" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L209" s="4"/>
       <c r="M209" s="5" t="s">
         <v>64</v>
       </c>
@@ -13419,9 +13129,7 @@
         <v>361</v>
       </c>
       <c r="K210" s="5"/>
-      <c r="L210" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L210" s="4"/>
       <c r="M210" s="5" t="s">
         <v>64</v>
       </c>
@@ -13473,9 +13181,7 @@
         <v>361</v>
       </c>
       <c r="K211" s="5"/>
-      <c r="L211" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L211" s="4"/>
       <c r="M211" s="5" t="s">
         <v>64</v>
       </c>
@@ -13502,48 +13208,46 @@
       <c r="V211" s="5"/>
     </row>
     <row r="212" spans="1:22">
-      <c r="A212" s="5" t="s">
+      <c r="A212" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="B212" s="5" t="s">
+      <c r="B212" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C212" s="5" t="s">
+      <c r="C212" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D212" s="5" t="s">
+      <c r="D212" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E212" s="5"/>
-      <c r="F212" s="5"/>
-      <c r="G212" s="5"/>
-      <c r="H212" s="5"/>
-      <c r="I212" s="5"/>
-      <c r="J212" s="5" t="s">
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="2"/>
+      <c r="I212" s="2"/>
+      <c r="J212" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K212" s="5"/>
-      <c r="L212" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M212" s="5" t="s">
+      <c r="K212" s="2"/>
+      <c r="L212" s="4"/>
+      <c r="M212" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="N212" s="5" t="s">
+      <c r="N212" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O212" s="5" t="s">
+      <c r="O212" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P212" s="5"/>
-      <c r="Q212" s="5"/>
-      <c r="R212" s="5"/>
-      <c r="S212" s="5"/>
-      <c r="T212" s="5"/>
-      <c r="U212" s="5" t="s">
+      <c r="P212" s="2"/>
+      <c r="Q212" s="2"/>
+      <c r="R212" s="2"/>
+      <c r="S212" s="2"/>
+      <c r="T212" s="2"/>
+      <c r="U212" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V212" s="5"/>
+      <c r="V212" s="2"/>
     </row>
     <row r="213" spans="1:22">
       <c r="A213" s="5" t="s">
@@ -13573,9 +13277,7 @@
         <v>361</v>
       </c>
       <c r="K213" s="5"/>
-      <c r="L213" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L213" s="4"/>
       <c r="M213" s="5" t="s">
         <v>65</v>
       </c>
@@ -13629,9 +13331,7 @@
       <c r="K214" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L214" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L214" s="4"/>
       <c r="M214" s="5" t="s">
         <v>65</v>
       </c>
@@ -13658,48 +13358,46 @@
       </c>
     </row>
     <row r="215" spans="1:22">
-      <c r="A215" s="5" t="s">
+      <c r="A215" s="2" t="s">
         <v>644</v>
       </c>
-      <c r="B215" s="5" t="s">
+      <c r="B215" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C215" s="5" t="s">
+      <c r="C215" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D215" s="5" t="s">
+      <c r="D215" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E215" s="5"/>
-      <c r="F215" s="5"/>
-      <c r="G215" s="5"/>
-      <c r="H215" s="5"/>
-      <c r="I215" s="5"/>
-      <c r="J215" s="5" t="s">
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="2"/>
+      <c r="I215" s="2"/>
+      <c r="J215" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K215" s="5"/>
-      <c r="L215" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M215" s="5" t="s">
+      <c r="K215" s="2"/>
+      <c r="L215" s="4"/>
+      <c r="M215" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="N215" s="5" t="s">
+      <c r="N215" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O215" s="5" t="s">
+      <c r="O215" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P215" s="5"/>
-      <c r="Q215" s="5"/>
-      <c r="R215" s="5"/>
-      <c r="S215" s="5"/>
-      <c r="T215" s="5"/>
-      <c r="U215" s="5" t="s">
+      <c r="P215" s="2"/>
+      <c r="Q215" s="2"/>
+      <c r="R215" s="2"/>
+      <c r="S215" s="2"/>
+      <c r="T215" s="2"/>
+      <c r="U215" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V215" s="5"/>
+      <c r="V215" s="2"/>
     </row>
     <row r="216" spans="1:22">
       <c r="A216" s="5" t="s">
@@ -13729,9 +13427,7 @@
         <v>361</v>
       </c>
       <c r="K216" s="5"/>
-      <c r="L216" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L216" s="4"/>
       <c r="M216" s="5" t="s">
         <v>66</v>
       </c>
@@ -13785,9 +13481,7 @@
       <c r="K217" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L217" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L217" s="4"/>
       <c r="M217" s="5" t="s">
         <v>66</v>
       </c>
@@ -13814,48 +13508,46 @@
       </c>
     </row>
     <row r="218" spans="1:22">
-      <c r="A218" s="5" t="s">
+      <c r="A218" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="B218" s="5" t="s">
+      <c r="B218" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C218" s="5" t="s">
+      <c r="C218" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D218" s="5" t="s">
+      <c r="D218" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="E218" s="5"/>
-      <c r="F218" s="5"/>
-      <c r="G218" s="5"/>
-      <c r="H218" s="5"/>
-      <c r="I218" s="5"/>
-      <c r="J218" s="5" t="s">
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="2"/>
+      <c r="I218" s="2"/>
+      <c r="J218" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K218" s="5"/>
-      <c r="L218" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M218" s="5" t="s">
+      <c r="K218" s="2"/>
+      <c r="L218" s="4"/>
+      <c r="M218" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="N218" s="5" t="s">
+      <c r="N218" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O218" s="5" t="s">
+      <c r="O218" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="P218" s="5"/>
-      <c r="Q218" s="5"/>
-      <c r="R218" s="5"/>
-      <c r="S218" s="5"/>
-      <c r="T218" s="5"/>
-      <c r="U218" s="5" t="s">
+      <c r="P218" s="2"/>
+      <c r="Q218" s="2"/>
+      <c r="R218" s="2"/>
+      <c r="S218" s="2"/>
+      <c r="T218" s="2"/>
+      <c r="U218" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V218" s="5"/>
+      <c r="V218" s="2"/>
     </row>
     <row r="219" spans="1:22">
       <c r="A219" s="5" t="s">
@@ -13885,9 +13577,7 @@
         <v>361</v>
       </c>
       <c r="K219" s="5"/>
-      <c r="L219" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L219" s="4"/>
       <c r="M219" s="5" t="s">
         <v>67</v>
       </c>
@@ -13941,9 +13631,7 @@
         <v>361</v>
       </c>
       <c r="K220" s="5"/>
-      <c r="L220" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L220" s="4"/>
       <c r="M220" s="5" t="s">
         <v>67</v>
       </c>
@@ -13997,9 +13685,7 @@
       <c r="K221" s="5" t="s">
         <v>420</v>
       </c>
-      <c r="L221" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L221" s="4"/>
       <c r="M221" s="5" t="s">
         <v>67</v>
       </c>
@@ -14053,9 +13739,7 @@
         <v>361</v>
       </c>
       <c r="K222" s="5"/>
-      <c r="L222" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L222" s="4"/>
       <c r="M222" s="5" t="s">
         <v>67</v>
       </c>
@@ -14109,9 +13793,7 @@
         <v>361</v>
       </c>
       <c r="K223" s="5"/>
-      <c r="L223" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L223" s="4"/>
       <c r="M223" s="5" t="s">
         <v>67</v>
       </c>
@@ -14165,9 +13847,7 @@
         <v>361</v>
       </c>
       <c r="K224" s="5"/>
-      <c r="L224" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L224" s="4"/>
       <c r="M224" s="5" t="s">
         <v>67</v>
       </c>
@@ -14194,50 +13874,48 @@
       <c r="V224" s="5"/>
     </row>
     <row r="225" spans="1:22">
-      <c r="A225" s="5" t="s">
+      <c r="A225" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="B225" s="5" t="s">
+      <c r="B225" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C225" s="5" t="s">
+      <c r="C225" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D225" s="5" t="s">
+      <c r="D225" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E225" s="5"/>
-      <c r="F225" s="5"/>
-      <c r="G225" s="5"/>
-      <c r="H225" s="5"/>
-      <c r="I225" s="5"/>
-      <c r="J225" s="5" t="s">
+      <c r="E225" s="2"/>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="2"/>
+      <c r="I225" s="2"/>
+      <c r="J225" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="K225" s="5" t="s">
+      <c r="K225" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="L225" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M225" s="5" t="s">
+      <c r="L225" s="4"/>
+      <c r="M225" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="N225" s="5" t="s">
+      <c r="N225" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O225" s="5" t="s">
+      <c r="O225" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P225" s="5"/>
-      <c r="Q225" s="5"/>
-      <c r="R225" s="5"/>
-      <c r="S225" s="5"/>
-      <c r="T225" s="5"/>
-      <c r="U225" s="5" t="s">
+      <c r="P225" s="2"/>
+      <c r="Q225" s="2"/>
+      <c r="R225" s="2"/>
+      <c r="S225" s="2"/>
+      <c r="T225" s="2"/>
+      <c r="U225" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="V225" s="5" t="s">
+      <c r="V225" s="2" t="s">
         <v>425</v>
       </c>
     </row>
@@ -14269,9 +13947,7 @@
         <v>361</v>
       </c>
       <c r="K226" s="5"/>
-      <c r="L226" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L226" s="4"/>
       <c r="M226" s="5" t="s">
         <v>68</v>
       </c>
@@ -14325,9 +14001,7 @@
       <c r="K227" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L227" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L227" s="4"/>
       <c r="M227" s="5" t="s">
         <v>68</v>
       </c>
@@ -14354,50 +14028,48 @@
       </c>
     </row>
     <row r="228" spans="1:22">
-      <c r="A228" s="5" t="s">
+      <c r="A228" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="B228" s="5" t="s">
+      <c r="B228" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C228" s="5" t="s">
+      <c r="C228" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D228" s="5" t="s">
+      <c r="D228" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E228" s="5"/>
-      <c r="F228" s="5"/>
-      <c r="G228" s="5"/>
-      <c r="H228" s="5"/>
-      <c r="I228" s="5"/>
-      <c r="J228" s="5" t="s">
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+      <c r="I228" s="2"/>
+      <c r="J228" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="K228" s="5" t="s">
+      <c r="K228" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="L228" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M228" s="5" t="s">
+      <c r="L228" s="4"/>
+      <c r="M228" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N228" s="5" t="s">
+      <c r="N228" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O228" s="5" t="s">
+      <c r="O228" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P228" s="5"/>
-      <c r="Q228" s="5"/>
-      <c r="R228" s="5"/>
-      <c r="S228" s="5"/>
-      <c r="T228" s="5"/>
-      <c r="U228" s="5" t="s">
+      <c r="P228" s="2"/>
+      <c r="Q228" s="2"/>
+      <c r="R228" s="2"/>
+      <c r="S228" s="2"/>
+      <c r="T228" s="2"/>
+      <c r="U228" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="V228" s="5" t="s">
+      <c r="V228" s="2" t="s">
         <v>426</v>
       </c>
     </row>
@@ -14429,9 +14101,7 @@
         <v>361</v>
       </c>
       <c r="K229" s="5"/>
-      <c r="L229" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L229" s="4"/>
       <c r="M229" s="5" t="s">
         <v>69</v>
       </c>
@@ -14485,9 +14155,7 @@
       <c r="K230" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L230" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L230" s="4"/>
       <c r="M230" s="5" t="s">
         <v>69</v>
       </c>
@@ -14514,48 +14182,46 @@
       </c>
     </row>
     <row r="231" spans="1:22">
-      <c r="A231" s="5" t="s">
+      <c r="A231" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="B231" s="5" t="s">
+      <c r="B231" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C231" s="5" t="s">
+      <c r="C231" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D231" s="5" t="s">
+      <c r="D231" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E231" s="5"/>
-      <c r="F231" s="5"/>
-      <c r="G231" s="5"/>
-      <c r="H231" s="5"/>
-      <c r="I231" s="5"/>
-      <c r="J231" s="5" t="s">
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K231" s="5"/>
-      <c r="L231" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M231" s="5" t="s">
+      <c r="K231" s="2"/>
+      <c r="L231" s="4"/>
+      <c r="M231" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="N231" s="5" t="s">
+      <c r="N231" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O231" s="5" t="s">
+      <c r="O231" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P231" s="5"/>
-      <c r="Q231" s="5"/>
-      <c r="R231" s="5"/>
-      <c r="S231" s="5"/>
-      <c r="T231" s="5"/>
-      <c r="U231" s="5" t="s">
+      <c r="P231" s="2"/>
+      <c r="Q231" s="2"/>
+      <c r="R231" s="2"/>
+      <c r="S231" s="2"/>
+      <c r="T231" s="2"/>
+      <c r="U231" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V231" s="5"/>
+      <c r="V231" s="2"/>
     </row>
     <row r="232" spans="1:22">
       <c r="A232" s="5" t="s">
@@ -14585,9 +14251,7 @@
         <v>361</v>
       </c>
       <c r="K232" s="5"/>
-      <c r="L232" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L232" s="4"/>
       <c r="M232" s="5" t="s">
         <v>70</v>
       </c>
@@ -14641,9 +14305,7 @@
       <c r="K233" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L233" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L233" s="4"/>
       <c r="M233" s="5" t="s">
         <v>70</v>
       </c>
@@ -14670,48 +14332,46 @@
       </c>
     </row>
     <row r="234" spans="1:22">
-      <c r="A234" s="5" t="s">
+      <c r="A234" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="B234" s="5" t="s">
+      <c r="B234" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C234" s="5" t="s">
+      <c r="C234" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D234" s="5" t="s">
+      <c r="D234" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E234" s="5"/>
-      <c r="F234" s="5"/>
-      <c r="G234" s="5"/>
-      <c r="H234" s="5"/>
-      <c r="I234" s="5"/>
-      <c r="J234" s="5" t="s">
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K234" s="5"/>
-      <c r="L234" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M234" s="5" t="s">
+      <c r="K234" s="2"/>
+      <c r="L234" s="4"/>
+      <c r="M234" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="N234" s="5" t="s">
+      <c r="N234" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="O234" s="5" t="s">
+      <c r="O234" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P234" s="5"/>
-      <c r="Q234" s="5"/>
-      <c r="R234" s="5"/>
-      <c r="S234" s="5"/>
-      <c r="T234" s="5"/>
-      <c r="U234" s="5" t="s">
+      <c r="P234" s="2"/>
+      <c r="Q234" s="2"/>
+      <c r="R234" s="2"/>
+      <c r="S234" s="2"/>
+      <c r="T234" s="2"/>
+      <c r="U234" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V234" s="5"/>
+      <c r="V234" s="2"/>
     </row>
     <row r="235" spans="1:22">
       <c r="A235" s="5" t="s">
@@ -14741,9 +14401,7 @@
         <v>361</v>
       </c>
       <c r="K235" s="5"/>
-      <c r="L235" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L235" s="4"/>
       <c r="M235" s="5" t="s">
         <v>71</v>
       </c>
@@ -14797,9 +14455,7 @@
       <c r="K236" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="L236" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L236" s="4"/>
       <c r="M236" s="5" t="s">
         <v>71</v>
       </c>
@@ -14826,44 +14482,42 @@
       </c>
     </row>
     <row r="237" spans="1:22">
-      <c r="A237" s="5" t="s">
+      <c r="A237" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="B237" s="5" t="s">
+      <c r="B237" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C237" s="5"/>
-      <c r="D237" s="5" t="s">
+      <c r="C237" s="2"/>
+      <c r="D237" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="E237" s="5"/>
-      <c r="F237" s="5"/>
-      <c r="G237" s="5"/>
-      <c r="H237" s="5"/>
-      <c r="I237" s="5"/>
-      <c r="J237" s="5" t="s">
+      <c r="E237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2"/>
+      <c r="H237" s="2"/>
+      <c r="I237" s="2"/>
+      <c r="J237" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="K237" s="5"/>
-      <c r="L237" s="7" t="s">
-        <v>427</v>
-      </c>
-      <c r="M237" s="5" t="s">
+      <c r="K237" s="2"/>
+      <c r="L237" s="4"/>
+      <c r="M237" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="N237" s="5"/>
-      <c r="O237" s="5" t="s">
+      <c r="N237" s="2"/>
+      <c r="O237" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P237" s="5"/>
-      <c r="Q237" s="5"/>
-      <c r="R237" s="5"/>
-      <c r="S237" s="5"/>
-      <c r="T237" s="5"/>
-      <c r="U237" s="5" t="s">
+      <c r="P237" s="2"/>
+      <c r="Q237" s="2"/>
+      <c r="R237" s="2"/>
+      <c r="S237" s="2"/>
+      <c r="T237" s="2"/>
+      <c r="U237" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="V237" s="5"/>
+      <c r="V237" s="2"/>
     </row>
     <row r="238" spans="1:22">
       <c r="A238" s="5" t="s">
@@ -14889,9 +14543,7 @@
         <v>361</v>
       </c>
       <c r="K238" s="5"/>
-      <c r="L238" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L238" s="4"/>
       <c r="M238" s="5" t="s">
         <v>72</v>
       </c>
@@ -14937,9 +14589,7 @@
         <v>361</v>
       </c>
       <c r="K239" s="5"/>
-      <c r="L239" s="7" t="s">
-        <v>427</v>
-      </c>
+      <c r="L239" s="4"/>
       <c r="M239" s="5" t="s">
         <v>72</v>
       </c>

--- a/data/output/FV2404_FV2310/INVOIC/31002.xlsx
+++ b/data/output/FV2404_FV2310/INVOIC/31002.xlsx
@@ -2650,7 +2650,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2986,7 +2986,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -3220,7 +3220,7 @@
       </c>
       <c r="K14" s="2"/>
       <c r="L14" s="4"/>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N14" s="2"/>
@@ -3408,7 +3408,7 @@
       </c>
       <c r="K18" s="2"/>
       <c r="L18" s="4"/>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N18" s="2"/>
@@ -3598,7 +3598,7 @@
         <v>399</v>
       </c>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2"/>
@@ -3786,7 +3786,7 @@
         <v>399</v>
       </c>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3972,7 +3972,7 @@
       </c>
       <c r="K30" s="2"/>
       <c r="L30" s="4"/>
-      <c r="M30" s="2" t="s">
+      <c r="M30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N30" s="2"/>
@@ -4362,7 +4362,7 @@
         <v>400</v>
       </c>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2"/>
@@ -4482,21 +4482,21 @@
       <c r="V40" s="5"/>
     </row>
     <row r="41" spans="1:22">
-      <c r="A41" s="5" t="s">
+      <c r="A41" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5" t="s">
+      <c r="C41" s="2"/>
+      <c r="D41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
       <c r="J41" s="6" t="s">
         <v>367</v>
       </c>
@@ -4506,18 +4506,18 @@
       <c r="L41" s="7" t="s">
         <v>427</v>
       </c>
-      <c r="M41" s="5" t="s">
+      <c r="M41" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="N41" s="5"/>
-      <c r="O41" s="5" t="s">
+      <c r="N41" s="2"/>
+      <c r="O41" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="P41" s="5"/>
-      <c r="Q41" s="5"/>
-      <c r="R41" s="5"/>
-      <c r="S41" s="5"/>
-      <c r="T41" s="5"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
       <c r="U41" s="6" t="s">
         <v>432</v>
       </c>
@@ -5056,7 +5056,7 @@
       </c>
       <c r="K52" s="2"/>
       <c r="L52" s="4"/>
-      <c r="M52" s="2" t="s">
+      <c r="M52" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N52" s="2" t="s">
@@ -5206,7 +5206,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5352,7 +5352,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="K62" s="2"/>
       <c r="L62" s="4"/>
-      <c r="M62" s="2" t="s">
+      <c r="M62" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N62" s="2" t="s">
@@ -5702,7 +5702,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -6376,7 +6376,7 @@
       </c>
       <c r="K78" s="2"/>
       <c r="L78" s="4"/>
-      <c r="M78" s="2" t="s">
+      <c r="M78" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N78" s="2" t="s">
@@ -6582,7 +6582,7 @@
       </c>
       <c r="K82" s="2"/>
       <c r="L82" s="4"/>
-      <c r="M82" s="2" t="s">
+      <c r="M82" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N82" s="2" t="s">
@@ -6728,7 +6728,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -7094,7 +7094,7 @@
       </c>
       <c r="K92" s="2"/>
       <c r="L92" s="4"/>
-      <c r="M92" s="2" t="s">
+      <c r="M92" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N92" s="2" t="s">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7974,7 +7974,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -8326,7 +8326,7 @@
       </c>
       <c r="K116" s="2"/>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8682,7 +8682,7 @@
       </c>
       <c r="K123" s="2"/>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8778,7 +8778,7 @@
       </c>
       <c r="K125" s="2"/>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8982,7 +8982,7 @@
       </c>
       <c r="K129" s="2"/>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -9246,7 +9246,7 @@
       </c>
       <c r="K134" s="2"/>
       <c r="L134" s="4"/>
-      <c r="M134" s="2" t="s">
+      <c r="M134" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N134" s="2" t="s">
@@ -9674,7 +9674,7 @@
         <v>413</v>
       </c>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9996,7 +9996,7 @@
         <v>416</v>
       </c>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -10200,7 +10200,7 @@
         <v>416</v>
       </c>
       <c r="L152" s="4"/>
-      <c r="M152" s="2" t="s">
+      <c r="M152" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N152" s="2" t="s">
@@ -10402,7 +10402,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -10552,7 +10552,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10702,7 +10702,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -11020,7 +11020,7 @@
       </c>
       <c r="K168" s="2"/>
       <c r="L168" s="4"/>
-      <c r="M168" s="2" t="s">
+      <c r="M168" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N168" s="2" t="s">
@@ -11386,7 +11386,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N175" s="2" t="s">
@@ -11590,7 +11590,7 @@
       </c>
       <c r="K179" s="2"/>
       <c r="L179" s="4"/>
-      <c r="M179" s="2" t="s">
+      <c r="M179" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N179" s="2" t="s">
@@ -11740,7 +11740,7 @@
       </c>
       <c r="K182" s="2"/>
       <c r="L182" s="4"/>
-      <c r="M182" s="2" t="s">
+      <c r="M182" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N182" s="2" t="s">
@@ -11890,7 +11890,7 @@
       </c>
       <c r="K185" s="2"/>
       <c r="L185" s="4"/>
-      <c r="M185" s="2" t="s">
+      <c r="M185" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N185" s="2" t="s">
@@ -12040,7 +12040,7 @@
       </c>
       <c r="K188" s="2"/>
       <c r="L188" s="4"/>
-      <c r="M188" s="2" t="s">
+      <c r="M188" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N188" s="2" t="s">
@@ -12346,7 +12346,7 @@
       </c>
       <c r="K194" s="2"/>
       <c r="L194" s="4"/>
-      <c r="M194" s="2" t="s">
+      <c r="M194" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N194" s="2" t="s">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="K197" s="2"/>
       <c r="L197" s="4"/>
-      <c r="M197" s="2" t="s">
+      <c r="M197" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N197" s="2"/>
@@ -12584,7 +12584,7 @@
       </c>
       <c r="K199" s="2"/>
       <c r="L199" s="4"/>
-      <c r="M199" s="2" t="s">
+      <c r="M199" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N199" s="2" t="s">
@@ -12734,7 +12734,7 @@
       </c>
       <c r="K202" s="2"/>
       <c r="L202" s="4"/>
-      <c r="M202" s="2" t="s">
+      <c r="M202" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N202" s="2" t="s">
@@ -12884,7 +12884,7 @@
       </c>
       <c r="K205" s="2"/>
       <c r="L205" s="4"/>
-      <c r="M205" s="2" t="s">
+      <c r="M205" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N205" s="2" t="s">
@@ -13030,7 +13030,7 @@
       </c>
       <c r="K208" s="2"/>
       <c r="L208" s="4"/>
-      <c r="M208" s="2" t="s">
+      <c r="M208" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N208" s="2" t="s">
@@ -13230,7 +13230,7 @@
       </c>
       <c r="K212" s="2"/>
       <c r="L212" s="4"/>
-      <c r="M212" s="2" t="s">
+      <c r="M212" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N212" s="2" t="s">
@@ -13380,7 +13380,7 @@
       </c>
       <c r="K215" s="2"/>
       <c r="L215" s="4"/>
-      <c r="M215" s="2" t="s">
+      <c r="M215" s="3" t="s">
         <v>66</v>
       </c>
       <c r="N215" s="2" t="s">
@@ -13530,7 +13530,7 @@
       </c>
       <c r="K218" s="2"/>
       <c r="L218" s="4"/>
-      <c r="M218" s="2" t="s">
+      <c r="M218" s="3" t="s">
         <v>67</v>
       </c>
       <c r="N218" s="2" t="s">
@@ -13898,7 +13898,7 @@
         <v>425</v>
       </c>
       <c r="L225" s="4"/>
-      <c r="M225" s="2" t="s">
+      <c r="M225" s="3" t="s">
         <v>68</v>
       </c>
       <c r="N225" s="2" t="s">
@@ -14052,7 +14052,7 @@
         <v>426</v>
       </c>
       <c r="L228" s="4"/>
-      <c r="M228" s="2" t="s">
+      <c r="M228" s="3" t="s">
         <v>69</v>
       </c>
       <c r="N228" s="2" t="s">
@@ -14204,7 +14204,7 @@
       </c>
       <c r="K231" s="2"/>
       <c r="L231" s="4"/>
-      <c r="M231" s="2" t="s">
+      <c r="M231" s="3" t="s">
         <v>70</v>
       </c>
       <c r="N231" s="2" t="s">
@@ -14354,7 +14354,7 @@
       </c>
       <c r="K234" s="2"/>
       <c r="L234" s="4"/>
-      <c r="M234" s="2" t="s">
+      <c r="M234" s="3" t="s">
         <v>71</v>
       </c>
       <c r="N234" s="2" t="s">
@@ -14502,7 +14502,7 @@
       </c>
       <c r="K237" s="2"/>
       <c r="L237" s="4"/>
-      <c r="M237" s="2" t="s">
+      <c r="M237" s="3" t="s">
         <v>72</v>
       </c>
       <c r="N237" s="2"/>
